--- a/model_lca/results/lca_results.xlsx
+++ b/model_lca/results/lca_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15690" windowHeight="5810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="lca" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>operational</t>
   </si>
@@ -64,6 +64,42 @@
   </si>
   <si>
     <t>KBOB database results</t>
+  </si>
+  <si>
+    <t>mfh01</t>
+  </si>
+  <si>
+    <t>mfh02</t>
+  </si>
+  <si>
+    <t>mfh03</t>
+  </si>
+  <si>
+    <t>mfh04</t>
+  </si>
+  <si>
+    <t>mfh05</t>
+  </si>
+  <si>
+    <t>mfh06</t>
+  </si>
+  <si>
+    <t>mfh07</t>
+  </si>
+  <si>
+    <t>mfh08</t>
+  </si>
+  <si>
+    <t>mfh09</t>
+  </si>
+  <si>
+    <t>mfh10</t>
+  </si>
+  <si>
+    <t>mfh11</t>
+  </si>
+  <si>
+    <t>mfh12</t>
   </si>
 </sst>
 </file>
@@ -206,7 +242,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,6 +420,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -547,8 +589,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,63 +667,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Total GHG emissions per sqm. per year</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -712,49 +699,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>lca!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>mfh01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>mfh02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>mfh03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>mfh04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>mfh05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>mfh06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>mfh07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>mfh08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>mfh09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>mfh10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>mfh11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>mfh12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -823,7 +809,10 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -832,49 +821,48 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>lca!$A$2:$A$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>mfh01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>mfh02</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>mfh03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>mfh04</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>mfh05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>mfh06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>mfh07</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>mfh08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>mfh09</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>mfh10</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>mfh11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>mfh12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -971,10 +959,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1012,6 +997,73 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Building Emissions</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> [kg CO2 eq / m</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="30000"/>
+                  <a:t>2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/ year] </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1030,10 +1082,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1073,10 +1122,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1096,12 +1142,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1111,7 +1152,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1679,10 +1724,10 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1967,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1978,7 +2023,7 @@
     <col min="2" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1986,9 +2031,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
       </c>
       <c r="B2">
         <v>1.0736689581249399</v>
@@ -1996,10 +2041,19 @@
       <c r="C2">
         <v>5.2256189302421499</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
       <c r="B3">
         <v>1.963305745258E-2</v>
@@ -2007,10 +2061,19 @@
       <c r="C3">
         <v>8.0411220442580102</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0.57991376179964005</v>
@@ -2018,10 +2081,19 @@
       <c r="C4">
         <v>3.0840435189460602</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
       </c>
       <c r="B5">
         <v>1.40256288060621</v>
@@ -2029,10 +2101,19 @@
       <c r="C5">
         <v>3.47093634062412</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
       </c>
       <c r="B6">
         <v>0.97756891274795998</v>
@@ -2040,10 +2121,19 @@
       <c r="C6">
         <v>2.3012646616082</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
       </c>
       <c r="B7">
         <v>0.11018361632206999</v>
@@ -2051,10 +2141,19 @@
       <c r="C7">
         <v>8.4956752865822391</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
       </c>
       <c r="B8">
         <v>3.1324915206205799</v>
@@ -2062,10 +2161,19 @@
       <c r="C8">
         <v>3.8046993963665399</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
       </c>
       <c r="B9">
         <v>0.64618962029102001</v>
@@ -2073,10 +2181,19 @@
       <c r="C9">
         <v>3.6058226408221499</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>23</v>
       </c>
       <c r="B10">
         <v>0.34794825707978</v>
@@ -2084,10 +2201,19 @@
       <c r="C10">
         <v>2.79579377121365</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>24</v>
       </c>
       <c r="B11">
         <v>7.5049276014868198</v>
@@ -2095,10 +2221,19 @@
       <c r="C11">
         <v>3.6238768646320199</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
       </c>
       <c r="B12">
         <v>0.19054309316274001</v>
@@ -2106,10 +2241,19 @@
       <c r="C12">
         <v>4.1716641341421496</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
       </c>
       <c r="B13">
         <v>0.23279395611128001</v>
@@ -2117,46 +2261,111 @@
       <c r="C13">
         <v>5.2275529223252404</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C15" s="2"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16">
         <v>11.973719999999998</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
         <v>6.5177649999999998</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>4</v>
       </c>
       <c r="C18">
         <v>2.2061949999999997</v>
       </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>5</v>
       </c>
       <c r="C19">
         <v>8.1118649999999981</v>
       </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2373,7 @@
         <v>6.1315839999999993</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>7</v>
       </c>
@@ -2172,7 +2381,7 @@
         <v>19.782176999999997</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -2180,7 +2389,7 @@
         <v>9.7804249999999975</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>9</v>
       </c>
@@ -2188,7 +2397,7 @@
         <v>8.1722239999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>10</v>
       </c>
@@ -2196,7 +2405,7 @@
         <v>7.4503129999999995</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -2204,7 +2413,7 @@
         <v>7.9029620000000005</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>12</v>
       </c>
@@ -2212,7 +2421,7 @@
         <v>9.0742699999999985</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>13</v>
       </c>
